--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H2">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>28.909672819664</v>
+        <v>294.7242032659786</v>
       </c>
       <c r="R2">
-        <v>260.187055376976</v>
+        <v>2652.517829393808</v>
       </c>
       <c r="S2">
-        <v>0.002165405206946847</v>
+        <v>0.02669437088524855</v>
       </c>
       <c r="T2">
-        <v>0.002165405206946847</v>
+        <v>0.02669437088524854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H3">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>45.87635614501333</v>
+        <v>71.98206126062445</v>
       </c>
       <c r="R3">
-        <v>412.88720530512</v>
+        <v>647.83855134562</v>
       </c>
       <c r="S3">
-        <v>0.003436251288343512</v>
+        <v>0.006519708320804882</v>
       </c>
       <c r="T3">
-        <v>0.003436251288343512</v>
+        <v>0.006519708320804881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H4">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>1.064133636626667</v>
+        <v>1.244779276722889</v>
       </c>
       <c r="R4">
-        <v>9.57720272964</v>
+        <v>11.203013490506</v>
       </c>
       <c r="S4">
-        <v>7.970621224295989E-05</v>
+        <v>0.0001127447264761101</v>
       </c>
       <c r="T4">
-        <v>7.970621224295989E-05</v>
+        <v>0.0001127447264761101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H5">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>706.2115791914214</v>
+        <v>569.2089394048695</v>
       </c>
       <c r="R5">
-        <v>6355.904212722791</v>
+        <v>5122.880454643826</v>
       </c>
       <c r="S5">
-        <v>0.05289697466749236</v>
+        <v>0.0515555708397653</v>
       </c>
       <c r="T5">
-        <v>0.05289697466749236</v>
+        <v>0.05155557083976529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H6">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,43 +809,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>3.4608089334</v>
+        <v>1.986346356467667</v>
       </c>
       <c r="R6">
-        <v>31.1472804006</v>
+        <v>17.877117208209</v>
       </c>
       <c r="S6">
-        <v>0.0002592230542137149</v>
+        <v>0.0001799114757407874</v>
       </c>
       <c r="T6">
-        <v>0.0002592230542137149</v>
+        <v>0.0001799114757407874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.675848</v>
+        <v>29.79141</v>
       </c>
       <c r="H7">
-        <v>29.027544</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I7">
-        <v>0.05899100603075658</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J7">
-        <v>0.05899100603075658</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>2.048606016669333</v>
+        <v>578.33897401104</v>
       </c>
       <c r="R7">
-        <v>18.437454150024</v>
+        <v>5205.05076609936</v>
       </c>
       <c r="S7">
-        <v>0.000153445601517187</v>
+        <v>0.05238251524158737</v>
       </c>
       <c r="T7">
-        <v>0.000153445601517187</v>
+        <v>0.05238251524158737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,13 +918,13 @@
         <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>89.01131104338</v>
+        <v>141.2508066706</v>
       </c>
       <c r="R8">
-        <v>801.1017993904201</v>
+        <v>1271.2572600354</v>
       </c>
       <c r="S8">
-        <v>0.00666716491787473</v>
+        <v>0.01279366057935424</v>
       </c>
       <c r="T8">
-        <v>0.00666716491787473</v>
+        <v>0.01279366057935424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,43 +980,43 @@
         <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>141.2508066706</v>
+        <v>2.44263742778</v>
       </c>
       <c r="R9">
-        <v>1271.2572600354</v>
+        <v>21.98373685002</v>
       </c>
       <c r="S9">
-        <v>0.01058003091760741</v>
+        <v>0.000221239615589032</v>
       </c>
       <c r="T9">
-        <v>0.01058003091760741</v>
+        <v>0.000221239615589032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,43 +1042,43 @@
         <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>3.27640961945</v>
+        <v>1116.96192699938</v>
       </c>
       <c r="R10">
-        <v>29.48768657505</v>
+        <v>10052.65734299442</v>
       </c>
       <c r="S10">
-        <v>0.000245411094560088</v>
+        <v>0.1011677887788364</v>
       </c>
       <c r="T10">
-        <v>0.000245411094560088</v>
+        <v>0.1011677887788364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,48 +1104,48 @@
         <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>2174.38706172721</v>
+        <v>3.897818710170001</v>
       </c>
       <c r="R11">
-        <v>19569.48355554489</v>
+        <v>35.08036839153001</v>
       </c>
       <c r="S11">
-        <v>0.1628669094511281</v>
+        <v>0.0003530413082458574</v>
       </c>
       <c r="T11">
-        <v>0.1628669094511281</v>
+        <v>0.0003530413082458575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.79141</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H12">
-        <v>89.37423</v>
+        <v>128.185512</v>
       </c>
       <c r="I12">
-        <v>0.1816301007389473</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J12">
-        <v>0.1816301007389473</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>10.65564257175</v>
+        <v>829.4860553557761</v>
       </c>
       <c r="R12">
-        <v>95.90078314574998</v>
+        <v>7465.374498201984</v>
       </c>
       <c r="S12">
-        <v>0.0007981336922131278</v>
+        <v>0.07512992879592564</v>
       </c>
       <c r="T12">
-        <v>0.000798133692213128</v>
+        <v>0.07512992879592562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.79141</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H13">
-        <v>89.37423</v>
+        <v>128.185512</v>
       </c>
       <c r="I13">
-        <v>0.1816301007389473</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J13">
-        <v>0.1816301007389473</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>6.30754656037</v>
+        <v>202.5897954419734</v>
       </c>
       <c r="R13">
-        <v>56.76791904333</v>
+        <v>1823.30815897776</v>
       </c>
       <c r="S13">
-        <v>0.0004724506655639008</v>
+        <v>0.01834938249782672</v>
       </c>
       <c r="T13">
-        <v>0.0004724506655639008</v>
+        <v>0.01834938249782671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H14">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>98.87953011450399</v>
+        <v>3.503367014298667</v>
       </c>
       <c r="R14">
-        <v>889.9157710305359</v>
+        <v>31.530303128688</v>
       </c>
       <c r="S14">
-        <v>0.007406318663861413</v>
+        <v>0.0003173142123737821</v>
       </c>
       <c r="T14">
-        <v>0.007406318663861414</v>
+        <v>0.000317314212373782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H15">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>156.9105457291466</v>
+        <v>1602.009175317339</v>
       </c>
       <c r="R15">
-        <v>1412.19491156232</v>
+        <v>14418.08257785605</v>
       </c>
       <c r="S15">
-        <v>0.01175298367664869</v>
+        <v>0.1451004926422638</v>
       </c>
       <c r="T15">
-        <v>0.0117529836766487</v>
+        <v>0.1451004926422638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H16">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>3.639648038393333</v>
+        <v>5.590469277848001</v>
       </c>
       <c r="R16">
-        <v>32.75683234554</v>
+        <v>50.31422350063201</v>
       </c>
       <c r="S16">
-        <v>0.0002726185406162752</v>
+        <v>0.0005063515607870977</v>
       </c>
       <c r="T16">
-        <v>0.0002726185406162753</v>
+        <v>0.0005063515607870977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.09422799999999</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H17">
-        <v>99.28268399999999</v>
+        <v>30.001912</v>
       </c>
       <c r="I17">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J17">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>2415.449996527534</v>
+        <v>194.1418125163093</v>
       </c>
       <c r="R17">
-        <v>21739.04996874781</v>
+        <v>1747.276312646784</v>
       </c>
       <c r="S17">
-        <v>0.1809231129050618</v>
+        <v>0.01758421429327853</v>
       </c>
       <c r="T17">
-        <v>0.1809231129050618</v>
+        <v>0.01758421429327853</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.09422799999999</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H18">
-        <v>99.28268399999999</v>
+        <v>30.001912</v>
       </c>
       <c r="I18">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J18">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>11.8369779999</v>
+        <v>47.41628847219555</v>
       </c>
       <c r="R18">
-        <v>106.5328019991</v>
+        <v>426.74659624976</v>
       </c>
       <c r="S18">
-        <v>0.0008866186053155279</v>
+        <v>0.004294686274328235</v>
       </c>
       <c r="T18">
-        <v>0.0008866186053155282</v>
+        <v>0.004294686274328234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.09422799999999</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H19">
-        <v>99.28268399999999</v>
+        <v>30.001912</v>
       </c>
       <c r="I19">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J19">
-        <v>0.2017664811943339</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>7.006831297662665</v>
+        <v>0.8199655891431111</v>
       </c>
       <c r="R19">
-        <v>63.061481678964</v>
+        <v>7.379690302288</v>
       </c>
       <c r="S19">
-        <v>0.0005248288028301943</v>
+        <v>7.426762141409179E-05</v>
       </c>
       <c r="T19">
-        <v>0.0005248288028301944</v>
+        <v>7.426762141409177E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H20">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>41.34067286150134</v>
+        <v>374.9514087135165</v>
       </c>
       <c r="R20">
-        <v>372.066055753512</v>
+        <v>3374.562678421648</v>
       </c>
       <c r="S20">
-        <v>0.003096517516175115</v>
+        <v>0.03396087548029488</v>
       </c>
       <c r="T20">
-        <v>0.003096517516175115</v>
+        <v>0.03396087548029487</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H21">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>65.6029365430489</v>
+        <v>1.308453386781333</v>
       </c>
       <c r="R21">
-        <v>590.42642888744</v>
+        <v>11.776080481032</v>
       </c>
       <c r="S21">
-        <v>0.004913820411163431</v>
+        <v>0.0001185119498356191</v>
       </c>
       <c r="T21">
-        <v>0.004913820411163432</v>
+        <v>0.0001185119498356191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.83640933333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H22">
-        <v>41.509228</v>
+        <v>137.256073</v>
       </c>
       <c r="I22">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J22">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1099783333333333</v>
+        <v>19.412944</v>
       </c>
       <c r="N22">
-        <v>0.329935</v>
+        <v>58.238832</v>
       </c>
       <c r="O22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q22">
-        <v>1.521705237797778</v>
+        <v>888.1814862696373</v>
       </c>
       <c r="R22">
-        <v>13.69534714018</v>
+        <v>7993.633376426735</v>
       </c>
       <c r="S22">
-        <v>0.000113979444385974</v>
+        <v>0.08044621291755943</v>
       </c>
       <c r="T22">
-        <v>0.000113979444385974</v>
+        <v>0.08044621291755941</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.83640933333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H23">
-        <v>41.509228</v>
+        <v>137.256073</v>
       </c>
       <c r="I23">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J23">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.98704766666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N23">
-        <v>218.961143</v>
+        <v>14.22398</v>
       </c>
       <c r="O23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q23">
-        <v>1009.878667547512</v>
+        <v>216.9252930256156</v>
       </c>
       <c r="R23">
-        <v>9088.908007927605</v>
+        <v>1952.32763723054</v>
       </c>
       <c r="S23">
-        <v>0.07564238235185053</v>
+        <v>0.01964780687248514</v>
       </c>
       <c r="T23">
-        <v>0.07564238235185053</v>
+        <v>0.01964780687248513</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.83640933333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H24">
-        <v>41.509228</v>
+        <v>137.256073</v>
       </c>
       <c r="I24">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J24">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,43 +1925,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.357675</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N24">
-        <v>1.073025</v>
+        <v>0.245974</v>
       </c>
       <c r="O24">
-        <v>0.004394280953245005</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P24">
-        <v>0.004394280953245006</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q24">
-        <v>4.9489377083</v>
+        <v>3.751269477789111</v>
       </c>
       <c r="R24">
-        <v>44.54043937469999</v>
+        <v>33.761425300102</v>
       </c>
       <c r="S24">
-        <v>0.0003706875394009722</v>
+        <v>0.0003397677476805127</v>
       </c>
       <c r="T24">
-        <v>0.0003706875394009722</v>
+        <v>0.0003397677476805126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.83640933333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H25">
-        <v>41.509228</v>
+        <v>137.256073</v>
       </c>
       <c r="I25">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J25">
-        <v>0.0843568136277754</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2117236666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N25">
-        <v>0.635171</v>
+        <v>112.478254</v>
       </c>
       <c r="O25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q25">
-        <v>2.929495317554222</v>
+        <v>1715.369271326282</v>
       </c>
       <c r="R25">
-        <v>26.365457857988</v>
+        <v>15438.32344193654</v>
       </c>
       <c r="S25">
-        <v>0.0002194263647993802</v>
+        <v>0.1553679780164432</v>
       </c>
       <c r="T25">
-        <v>0.0002194263647993802</v>
+        <v>0.1553679780164432</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H26">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.987818</v>
+        <v>0.130837</v>
       </c>
       <c r="N26">
-        <v>8.963454</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q26">
-        <v>120.3764543624693</v>
+        <v>5.986057607700333</v>
       </c>
       <c r="R26">
-        <v>1083.388089262224</v>
+        <v>53.87451846930301</v>
       </c>
       <c r="S26">
-        <v>0.00901649087128341</v>
+        <v>0.0005421816062259658</v>
       </c>
       <c r="T26">
-        <v>0.00901649087128341</v>
+        <v>0.0005421816062259658</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.28908533333333</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H27">
-        <v>120.867256</v>
+        <v>105.073906</v>
       </c>
       <c r="I27">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J27">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.741326666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N27">
-        <v>14.22398</v>
+        <v>58.238832</v>
       </c>
       <c r="O27">
-        <v>0.05825042696427194</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P27">
-        <v>0.05825042696427195</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q27">
-        <v>191.0237146665422</v>
+        <v>679.9312843464212</v>
       </c>
       <c r="R27">
-        <v>1719.21343199888</v>
+        <v>6119.381559117791</v>
       </c>
       <c r="S27">
-        <v>0.01430814347051011</v>
+        <v>0.06158414436172617</v>
       </c>
       <c r="T27">
-        <v>0.01430814347051012</v>
+        <v>0.06158414436172616</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.28908533333333</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H28">
-        <v>120.867256</v>
+        <v>105.073906</v>
       </c>
       <c r="I28">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J28">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1099783333333333</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N28">
-        <v>0.329935</v>
+        <v>14.22398</v>
       </c>
       <c r="O28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P28">
-        <v>0.001351158720727747</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q28">
-        <v>4.430926456484444</v>
+        <v>166.0632374962089</v>
       </c>
       <c r="R28">
-        <v>39.87833810836</v>
+        <v>1494.56913746588</v>
       </c>
       <c r="S28">
-        <v>0.0003318872295899428</v>
+        <v>0.01504102344838073</v>
       </c>
       <c r="T28">
-        <v>0.0003318872295899428</v>
+        <v>0.01504102344838073</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.28908533333333</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H29">
-        <v>120.867256</v>
+        <v>105.073906</v>
       </c>
       <c r="I29">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J29">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>72.98704766666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N29">
-        <v>218.961143</v>
+        <v>0.245974</v>
       </c>
       <c r="O29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P29">
-        <v>0.8966955850848359</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q29">
-        <v>2940.581391670401</v>
+        <v>2.871716550493777</v>
       </c>
       <c r="R29">
-        <v>26465.23252503361</v>
+        <v>25.845448954444</v>
       </c>
       <c r="S29">
-        <v>0.220256738867102</v>
+        <v>0.0002601030584753354</v>
       </c>
       <c r="T29">
-        <v>0.220256738867102</v>
+        <v>0.0002601030584753354</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.28908533333333</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H30">
-        <v>120.867256</v>
+        <v>105.073906</v>
       </c>
       <c r="I30">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J30">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.357675</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N30">
-        <v>1.073025</v>
+        <v>112.478254</v>
       </c>
       <c r="O30">
-        <v>0.004394280953245005</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P30">
-        <v>0.004394280953245006</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q30">
-        <v>14.4103985966</v>
+        <v>1313.169943093347</v>
       </c>
       <c r="R30">
-        <v>129.6935873694</v>
+        <v>11818.52948784012</v>
       </c>
       <c r="S30">
-        <v>0.001079374102567925</v>
+        <v>0.1189391475414703</v>
       </c>
       <c r="T30">
-        <v>0.001079374102567925</v>
+        <v>0.1189391475414703</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.28908533333333</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H31">
-        <v>120.867256</v>
+        <v>105.073906</v>
       </c>
       <c r="I31">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J31">
-        <v>0.2456315638559363</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.2117236666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N31">
-        <v>0.635171</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P31">
-        <v>0.002601169429746356</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q31">
-        <v>8.530152873419556</v>
+        <v>4.582518213107333</v>
       </c>
       <c r="R31">
-        <v>76.771375860776</v>
+        <v>41.24266391796601</v>
       </c>
       <c r="S31">
-        <v>0.0006389293148828513</v>
+        <v>0.0004150573295763469</v>
       </c>
       <c r="T31">
-        <v>0.0006389293148828513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H32">
-        <v>112.00634</v>
-      </c>
-      <c r="I32">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J32">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.987818</v>
-      </c>
-      <c r="N32">
-        <v>8.963454</v>
-      </c>
-      <c r="O32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="P32">
-        <v>0.03670737884717296</v>
-      </c>
-      <c r="Q32">
-        <v>111.5515195887067</v>
-      </c>
-      <c r="R32">
-        <v>1003.96367629836</v>
-      </c>
-      <c r="S32">
-        <v>0.008355481671031447</v>
-      </c>
-      <c r="T32">
-        <v>0.008355481671031449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H33">
-        <v>112.00634</v>
-      </c>
-      <c r="I33">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J33">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.741326666666667</v>
-      </c>
-      <c r="N33">
-        <v>14.22398</v>
-      </c>
-      <c r="O33">
-        <v>0.05825042696427194</v>
-      </c>
-      <c r="P33">
-        <v>0.05825042696427195</v>
-      </c>
-      <c r="Q33">
-        <v>177.0195488925777</v>
-      </c>
-      <c r="R33">
-        <v>1593.1759400332</v>
-      </c>
-      <c r="S33">
-        <v>0.01325919719999878</v>
-      </c>
-      <c r="T33">
-        <v>0.01325919719999878</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H34">
-        <v>112.00634</v>
-      </c>
-      <c r="I34">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J34">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.329935</v>
-      </c>
-      <c r="O34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P34">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q34">
-        <v>4.106090198655555</v>
-      </c>
-      <c r="R34">
-        <v>36.9548117879</v>
-      </c>
-      <c r="S34">
-        <v>0.0003075561993325073</v>
-      </c>
-      <c r="T34">
-        <v>0.0003075561993325074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H35">
-        <v>112.00634</v>
-      </c>
-      <c r="I35">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J35">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N35">
-        <v>218.961143</v>
-      </c>
-      <c r="O35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P35">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q35">
-        <v>2725.004025516291</v>
-      </c>
-      <c r="R35">
-        <v>24525.03622964662</v>
-      </c>
-      <c r="S35">
-        <v>0.2041094668422012</v>
-      </c>
-      <c r="T35">
-        <v>0.2041094668422012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H36">
-        <v>112.00634</v>
-      </c>
-      <c r="I36">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J36">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.357675</v>
-      </c>
-      <c r="N36">
-        <v>1.073025</v>
-      </c>
-      <c r="O36">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P36">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q36">
-        <v>13.3539558865</v>
-      </c>
-      <c r="R36">
-        <v>120.1856029785</v>
-      </c>
-      <c r="S36">
-        <v>0.001000243959533737</v>
-      </c>
-      <c r="T36">
-        <v>0.001000243959533738</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>37.33544666666666</v>
-      </c>
-      <c r="H37">
-        <v>112.00634</v>
-      </c>
-      <c r="I37">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="J37">
-        <v>0.2276240345522505</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.635171</v>
-      </c>
-      <c r="O37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P37">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q37">
-        <v>7.904797664904444</v>
-      </c>
-      <c r="R37">
-        <v>71.14317898414001</v>
-      </c>
-      <c r="S37">
-        <v>0.0005920886801528423</v>
-      </c>
-      <c r="T37">
-        <v>0.0005920886801528423</v>
+        <v>0.000415057329576347</v>
       </c>
     </row>
   </sheetData>
